--- a/testMaterial.xlsx
+++ b/testMaterial.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="11310" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,154 +21,154 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <x:si>
+    <x:t>MATB1MAT009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x4 (7,8,9단)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x5 10단 뒷변속기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 FD-M4000 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1SEM001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1SEM002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력테스트2번파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최소공급수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(뒤)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>센터 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리드타임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킥스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뒷바퀴A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앞바퀴A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바텀브라켓 셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(앞)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재명</x:t>
+  </x:si>
+  <x:si>
     <x:t>벨로또</x:t>
   </x:si>
   <x:si>
-    <x:t>MATB1MAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크 케이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리드타임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>센터 스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소공급수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>킥스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바텀브라켓 셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(앞)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1SEM001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1SEM002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력테스트2번파일</x:t>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 세띠아 디펜더 (29x1.75)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 10단 디오레티아그라 스프라켓</x:t>
   </x:si>
   <x:si>
     <x:t>시마노 RD-M4120 10단</x:t>
   </x:si>
   <x:si>
+    <x:t>시마노 E25 옥타링크 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 슬릭 스테인레스 브레이크속선</x:t>
+  </x:si>
+  <x:si>
     <x:t>시마노 SM-BB52 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 슬릭 스테인레스 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 E25 옥타링크 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x4 (7,8,9단)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 FD-M4000 9단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벨로또 세띠아 디펜더 (29x1.75)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 10단 디오레티아그라 스프라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x5 10단 뒷변속기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뒷바퀴A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앞바퀴A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(뒤)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -207,6 +207,11 @@
       <x:color rgb="ff000000"/>
     </x:font>
     <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
@@ -214,11 +219,6 @@
     </x:font>
     <x:font>
       <x:name val="돋움"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
@@ -335,24 +335,24 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="13">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
@@ -364,25 +364,25 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="3">
     <x:cellStyle name="Normal" xfId="0" builtinId="0" iLevel="0"/>
-    <x:cellStyle name="표준" xfId="1" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준" xfId="1"/>
     <x:cellStyle name="표준 2" xfId="2"/>
   </x:cellStyles>
   <x:dxfs count="12">
@@ -1046,70 +1046,73 @@
   <x:dimension ref="A1:M14"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G18" activeCellId="0" sqref="G18:G18"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
+  <x:cols>
+    <x:col min="1" max="1" width="14.9296875" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G1" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="L1" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="M1" s="1" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13">
       <x:c r="A2" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E2" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="2">
         <x:v>3</x:v>
@@ -1135,22 +1138,22 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G3" s="2">
         <x:v>3</x:v>
@@ -1176,22 +1179,22 @@
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G4" s="2">
         <x:v>3</x:v>
@@ -1217,22 +1220,22 @@
     </x:row>
     <x:row r="5" spans="1:13">
       <x:c r="A5" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F5" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G5" s="7">
         <x:v>3</x:v>
@@ -1258,22 +1261,22 @@
     </x:row>
     <x:row r="6" spans="1:13">
       <x:c r="A6" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B6" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B6" s="10" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D6" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F6" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G6" s="7">
         <x:v>3</x:v>
@@ -1299,22 +1302,22 @@
     </x:row>
     <x:row r="7" spans="1:13">
       <x:c r="A7" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B7" s="10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C7" s="4" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B7" s="10" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C7" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E7" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F7" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G7" s="7">
         <x:v>3</x:v>
@@ -1340,22 +1343,22 @@
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B8" s="10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B8" s="10" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C8" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D8" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F8" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G8" s="7">
         <x:v>3</x:v>
@@ -1381,22 +1384,22 @@
     </x:row>
     <x:row r="9" spans="1:13">
       <x:c r="A9" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B9" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B9" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C9" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F9" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G9" s="7">
         <x:v>3</x:v>
@@ -1422,22 +1425,22 @@
     </x:row>
     <x:row r="10" spans="1:13">
       <x:c r="A10" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B10" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C10" s="4" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C10" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D10" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F10" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G10" s="7">
         <x:v>3</x:v>
@@ -1463,22 +1466,22 @@
     </x:row>
     <x:row r="11" spans="1:13">
       <x:c r="A11" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B11" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="4" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B11" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C11" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D11" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G11" s="7">
         <x:v>3</x:v>
@@ -1504,22 +1507,22 @@
     </x:row>
     <x:row r="12" spans="1:13">
       <x:c r="A12" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B12" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="4" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B12" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C12" s="4" t="s">
+      <x:c r="D12" s="11" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D12" s="11" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="E12" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G12" s="7">
         <x:v>3</x:v>
@@ -1545,22 +1548,22 @@
     </x:row>
     <x:row r="13" spans="1:13">
       <x:c r="A13" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B13" s="10" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C13" s="4" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B13" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C13" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E13" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G13" s="7">
         <x:v>3</x:v>
@@ -1586,22 +1589,22 @@
     </x:row>
     <x:row r="14" spans="1:13">
       <x:c r="A14" s="12" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B14" s="10" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="4" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B14" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C14" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E14" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F14" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G14" s="7">
         <x:v>3</x:v>
@@ -1626,7 +1629,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>